--- a/1조기업프로젝트_자료정리1.0/문서작성된곳/요구사항정의서/01조_메인화면_요구사항정의서.xlsx
+++ b/1조기업프로젝트_자료정리1.0/문서작성된곳/요구사항정의서/01조_메인화면_요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DY\Desktop\1조기업프로젝트_자료정리1.0\일단 작성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ya_traval\1조기업프로젝트_자료정리1.0\문서작성된곳\요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,30 +61,8 @@
     <t>MAIN01_SCREEN01</t>
   </si>
   <si>
-    <t xml:space="preserve">메인 중간 화면에서 사용자에게 제공되는 추천 여행지 화면 출력
-* 데이터 : 가족 끼리 많이가는 순서대로 상위 5개 항목 출력
-* 형식: 각 항목에 해당하는 사진을 표시
--&gt; 사진 오른쪽에 해당 항목에 대한 설명 표시 -&gt;
-사진을 선택시 해당 여행지 상세정보 페이지로 이동
-*MAIN02_SCREEN 중 오른쪽에 출력
--&gt; SCREEN1 : SCREEN2 : SCREEN3 형식으로 표시
-</t>
-  </si>
-  <si>
     <t>메인화면
 메뉴 관리</t>
-  </si>
-  <si>
-    <t xml:space="preserve">메인 중간 화면에서 사용자에게 제공되는 추천 여행지 화면 출력
-* 데이터 : 사용자가 회원가입,정보 수정때 선택한 
-MEM02_SIGNUP02 정보를 토대로 5개 항목 출력 
--&gt;단 로그인을 하지 않을시 랜덤으로 5개 항목 출력
-* 형식: 각 항목에 해당하는 사진을 표시
--&gt; 사진 오른쪽에 해당 항목에 대한 설명 표시 -&gt;
-사진을 선택시 해당 여행지 상세정보 페이지로 이동
-*MAIN02_SCREEN 중 가운대에 출력
--&gt; SCREEN1 : SCREEN2 : SCREEN3 형식으로 표시
-</t>
   </si>
   <si>
     <t>CRUD : C(입력), R(조회), U(수정), D(삭제)</t>
@@ -180,6 +158,28 @@
 "여행지도"메뉴를 클릭 했을때 여행지도 페이지로 이동하도록 설정
 *메뉴 순서: 메뉴의 표시 순서를 설정하여 "홈"을 가장 앞에 표시
 *메뉴 작성시 버튼 형식이 아닌 네비게이션 형식으로 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 중간 화면에서 사용자에게 제공되는 추천 여행지 화면 출력
+* 데이터 : 사용자가 회원가입,정보 수정때 선택한 
+MEM02_SIGNUP02 정보를 토대로 5개 항목 출력 
+-&gt;단 로그인을 하지 않을시 랜덤으로 5개 항목 출력
+* 형식: 각 항목에 해당하는 사진을 표시
+-&gt; 사진 오른쪽에 해당 항목에 대한 설명 표시 -&gt;
+사진을 선택시 해당 여행지 상세정보 페이지로 이동
+*MAIN02_SCREEN 중 가운대에 출력
+-&gt; SCREEN1 : SCREEN2 : SCREEN3 형식으로 표시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 중간 화면에서 사용자에게 제공되는 추천 여행지 화면 출력
+* 데이터 : 가족 끼리 많이가는 순서대로 상위 5개 항목 출력
+* 형식: 각 항목에 해당하는 사진을 표시
+-&gt; 사진 오른쪽에 해당 항목에 대한 설명 표시 -&gt;
+사진을 선택시 해당 여행지 상세정보 페이지로 이동
+*MAIN02_SCREEN 중 오른쪽에 출력
+-&gt; SCREEN1 : SCREEN2 : SCREEN3 형식으로 표시</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -584,7 +584,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -931,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -970,129 +970,129 @@
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="171.6" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="132" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="132" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="118.8" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="105.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="92.4" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="118.8" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -1534,7 +1534,7 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31486111879348755" right="0.31486111879348755" top="0.35430556535720825" bottom="0.35430556535720825" header="0.31486111879348755" footer="0.31486111879348755"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="5" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"맑은 고딕,Regular"&amp;9&amp;P페이지&amp;R&amp;"맑은 고딕,Regular"&amp;9&amp;F</oddFooter>
   </headerFooter>
